--- a/src/main/resources/商品映射维护.xlsx
+++ b/src/main/resources/商品映射维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>平台</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>操作人</t>
+  </si>
+  <si>
+    <t>例子：asd</t>
   </si>
   <si>
     <t>供应链-苏宁</t>
@@ -85,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,46 +101,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,16 +138,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +168,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -181,54 +238,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +251,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -264,37 +267,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,55 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,79 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +460,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,26 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,159 +544,161 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1067,104 +1070,133 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
